--- a/outputs-HGR-r202-archive/g__Alistipes.xlsx
+++ b/outputs-HGR-r202-archive/g__Alistipes.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA8"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -841,354 +841,176 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT47330.fa</t>
+          <t>even_MAG-GUT4979.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.974885513814074e-11</v>
+        <v>0.001841765485585661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01346441814113067</v>
+        <v>0.0003603552550929946</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00152218267684638</v>
+        <v>0.001213980928324689</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001962372161078725</v>
+        <v>0.002616900043366159</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001755858141241061</v>
+        <v>0.0001084065815948987</v>
       </c>
       <c r="G5" t="n">
-        <v>0.004701281918109519</v>
+        <v>0.01112294659557851</v>
       </c>
       <c r="H5" t="n">
-        <v>0.05399836661799442</v>
+        <v>0.05351126114718958</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03784714260883268</v>
+        <v>0.02212852771380033</v>
       </c>
       <c r="J5" t="n">
-        <v>0.002319093759034908</v>
+        <v>0.0139330550162166</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01372408472814886</v>
+        <v>0.07765697771150237</v>
       </c>
       <c r="L5" t="n">
-        <v>0.04372602529350999</v>
+        <v>0.0007095615120168049</v>
       </c>
       <c r="M5" t="n">
-        <v>0.244949700271895</v>
+        <v>0.1695198125301027</v>
       </c>
       <c r="N5" t="n">
-        <v>0.202665592442918</v>
+        <v>0.05718644029918218</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0318048979276192</v>
+        <v>0.01508384047849206</v>
       </c>
       <c r="P5" t="n">
-        <v>0.004105547234762277</v>
+        <v>4.244411476165755e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.0001246364650264421</v>
+        <v>0.002920315671308845</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1619088239353874</v>
+        <v>6.9386191654156e-09</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002186832539438908</v>
+        <v>0.3388400279781719</v>
       </c>
       <c r="T5" t="n">
-        <v>0.08051949521311384</v>
+        <v>0.004332840715275002</v>
       </c>
       <c r="U5" t="n">
-        <v>0.006359608806380355</v>
+        <v>0.00450694498555864</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0001117607745469979</v>
+        <v>0.02271370355612649</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04908120936557602</v>
+        <v>0.05027417725535761</v>
       </c>
       <c r="X5" t="n">
-        <v>0.04116106895765952</v>
+        <v>0.1494139071900604</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.244949700271895</v>
+        <v>0.3388400279781719</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>s__Alistipes sp900541585</t>
+          <t>s__Alistipes sp900550375</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>s__Alistipes sp900541585(reject)</t>
+          <t>s__Alistipes sp900550375(reject)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4979.fa</t>
+          <t>even_MAG-GUT83643.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001841765485585661</v>
+        <v>2.597999147097028e-08</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0003603552550929946</v>
+        <v>0.03235953838944323</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001213980928324689</v>
+        <v>0.2270135461905576</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002616900043366159</v>
+        <v>0.002075766620216034</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0001084065815948987</v>
+        <v>0.03389380927332136</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01112294659557851</v>
+        <v>0.01325443438609501</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05351126114718958</v>
+        <v>0.08120779571248049</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02212852771380033</v>
+        <v>0.04085836123276304</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0139330550162166</v>
+        <v>0.0008458688020984875</v>
       </c>
       <c r="K6" t="n">
-        <v>0.07765697771150237</v>
+        <v>0.008084070211924107</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0007095615120168049</v>
+        <v>0.05125791336015467</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1695198125301027</v>
+        <v>0.2981295949332692</v>
       </c>
       <c r="N6" t="n">
-        <v>0.05718644029918218</v>
+        <v>0.02623305278559948</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01508384047849206</v>
+        <v>0.005812999326166133</v>
       </c>
       <c r="P6" t="n">
-        <v>4.244411476165755e-06</v>
+        <v>8.021146163680817e-05</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002920315671308845</v>
+        <v>0.0003969596314925945</v>
       </c>
       <c r="R6" t="n">
-        <v>6.9386191654156e-09</v>
+        <v>0.01964556094578927</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3388400279781719</v>
+        <v>0.00176864055472477</v>
       </c>
       <c r="T6" t="n">
-        <v>0.004332840715275002</v>
+        <v>0.007272415941310085</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00450694498555864</v>
+        <v>0.001068170994888574</v>
       </c>
       <c r="V6" t="n">
-        <v>0.02271370355612649</v>
+        <v>9.538838585965979e-05</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05027417725535761</v>
+        <v>0.05223052345490841</v>
       </c>
       <c r="X6" t="n">
-        <v>0.1494139071900604</v>
+        <v>0.09641535142530952</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.3388400279781719</v>
+        <v>0.2981295949332692</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>s__Alistipes sp900550375</t>
+          <t>s__Alistipes sp900541585</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
-        <is>
-          <t>s__Alistipes sp900550375(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT54831.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1.404621975343e-12</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.001371003115218571</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6.309016554793845e-08</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.001983448021052547</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0009536682977228743</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0008288640916522614</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.06617653093215545</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.005388759281361603</v>
-      </c>
-      <c r="J7" t="n">
-        <v>8.965523801555118e-05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0003808799301714471</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.03506630093964511</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.07143273715434384</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.1093941100184954</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.01076398680182065</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.1223341657671933</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.001019581162509306</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.08375106627440117</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.003903998071318115</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.369721433741843</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.001975630242303824</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.646428215646432e-06</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.03271411353557557</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.08074735786341444</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.369721433741843</v>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>s__Alistipes sp900550925</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>s__Alistipes sp900550925(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT83643.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.597999147097028e-08</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.03235953838944323</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.2270135461905576</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.002075766620216034</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.03389380927332136</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.01325443438609501</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.08120779571248049</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.04085836123276304</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0008458688020984875</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.008084070211924107</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.05125791336015467</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.2981295949332692</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.02623305278559948</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.005812999326166133</v>
-      </c>
-      <c r="P8" t="n">
-        <v>8.021146163680817e-05</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.0003969596314925945</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0.01964556094578927</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.00176864055472477</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0.007272415941310085</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0.001068170994888574</v>
-      </c>
-      <c r="V8" t="n">
-        <v>9.538838585965979e-05</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.05223052345490841</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.09641535142530952</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.2981295949332692</v>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>s__Alistipes sp900541585</t>
-        </is>
-      </c>
-      <c r="AA8" t="inlineStr">
         <is>
           <t>s__Alistipes sp900541585(reject)</t>
         </is>
